--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -795,7 +795,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>facility [OMRSE:00000062]; healthcare facility [OMRSE:00000102]; hospice facility [OMRSE:00000104]; hospital facility [OMRSE:00000063]; rehabilitation facility [OMRSE:00000106]; residential facility [OMRSE:00000191]</t>
+          <t>rehabilitation facility [OMRSE:00000106]; architectural structure [OMRSE:00000061]; hospice facility [OMRSE:00000104]; healthcare facility [OMRSE:00000102]; residential facility [OMRSE:00000191]; facility [OMRSE:00000062]; hospital facility [OMRSE:00000063]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -912,6 +912,28 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>GAZ</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>geographic location [GAZ:00000448]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -934,6 +934,28 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>BFO</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>material entity [BFO:0000040]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -947,7 +947,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>material entity [BFO:0000040]</t>
+          <t>material entity [BFO:0000040]; site [BFO:0000029]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -525,7 +525,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ractopamine [CHEBI:82644]; ulotaront [CHEBI:228346]; high-density lipoprotein cholesterol [CHEBI:47775]; low-density lipoprotein cholesterol [CHEBI:47774]; very-low-density lipoprotein cholesterol [CHEBI:47773]</t>
+          <t>ulotaront [CHEBI:228346]; ractopamine [CHEBI:82644]; high-density lipoprotein cholesterol [CHEBI:47775]; psychotropic drug [CHEBI:35471]; low-density lipoprotein cholesterol [CHEBI:47774]; very-low-density lipoprotein cholesterol [CHEBI:47773]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -525,7 +525,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ulotaront [CHEBI:228346]; ractopamine [CHEBI:82644]; high-density lipoprotein cholesterol [CHEBI:47775]; psychotropic drug [CHEBI:35471]; low-density lipoprotein cholesterol [CHEBI:47774]; very-low-density lipoprotein cholesterol [CHEBI:47773]</t>
+          <t>ulotaront [CHEBI:228346]; ractopamine [CHEBI:82644]; high-density lipoprotein cholesterol [CHEBI:47775]; tranquilizing drug [CHEBI:35473]; psychotropic drug [CHEBI:35471]; low-density lipoprotein cholesterol [CHEBI:47774]; very-low-density lipoprotein cholesterol [CHEBI:47773]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -956,6 +956,28 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>COB</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>planned process [COB:0000082]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>measurement data item [IAO:0000109]</t>
+          <t>measurement data item [IAO:0000109]; measurement datum [IAO:0000109]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>intervention setting [BCIO:014000]; study recruitment setting [BCIO:014000]; country of intervention [BCIO:026001]; community facility [BCIO:026029]; criminal justice facility [BCIO:026038]; educational facility [BCIO:026022]; factory facility [BCIO:026039]; care home facility [BCIO:026017]; community healthcare facility [BCIO:026019]; community outpatient clinic facility [BCIO:026020]; dentist facility [BCIO:026021]; doctor-led primary care facility [BCIO:026016]; psychiatric facility [BCIO:026051]; military facility [BCIO:026040]; office facility [BCIO:026037]; retail facility [BCIO:026036]; outdoor environment [BCIO:026046]; path or pavement [BCIO:026048]; water [BCIO:026047]; transportation [BCIO:026041]; ambulance [BCIO:026045]; mobile intervention venue [BCIO:026044]; private transportation [BCIO:026043]; public transportation [BCIO:026042]; human age [BCIO:015015]; mean human age [BCIO:015177]; biological sex [BCIO:015105]; female biological sex [BCIO:015106]; male biological sex [BCIO:015107]; medication use status [BCIO:015490]; intervention effect estimate [BCIO:017000]; intervention evaluation finding [BCIO:023000]; belief about quality of life [BCIO:050324]; BCI schedule of delivery [BCIO:008500]; regular intervention schedule [BCIO:008535]; irregular intervention schedule [BCIO:008540]; behaviour change intervention mode of delivery [BCIO:011000]; somatic mode of delivery [BCIO:011034]; ingestion mode of delivery [BCIO:011035]; alimentary mode of delivery [BCIO:011037]; buccal mode of delivery [BCIO:011040]; inhalation mode of delivery [BCIO:011041]; injection mode of delivery [BCIO:011042]; transdermal mode of delivery [BCIO:011036]; wearable ingestion mode of delivery [BCIO:011046]</t>
+          <t>community healthcare facility [BCIO:026019]; psychiatric facility [BCIO:026051]; community facility [BCIO:026029]; mobile intervention venue [BCIO:026044]; intervention effect estimate [BCIO:017000]; care home facility [BCIO:026017]; transportation [BCIO:026041]; regular intervention schedule [BCIO:008535]; somatic mode of delivery [BCIO:011034]; intervention evaluation finding [BCIO:023000]; behaviour change intervention mode of delivery [BCIO:011000]; biological sex [BCIO:015105]; inhalation mode of delivery [BCIO:011041]; transdermal mode of delivery [BCIO:011036]; wearable ingestion mode of delivery [BCIO:011046]; office facility [BCIO:026037]; outdoor environment [BCIO:026046]; injection mode of delivery [BCIO:011042]; irregular intervention schedule [BCIO:008540]; belief about quality of life [BCIO:050324]; military facility [BCIO:026040]; male biological sex [BCIO:015107]; community outpatient clinic facility [BCIO:026020]; alimentary mode of delivery [BCIO:011037]; ambulance [BCIO:026045]; medication use status [BCIO:015490]; factory facility [BCIO:026039]; private transportation [BCIO:026043]; female biological sex [BCIO:015106]; behaviour change intervention source [BCIO:010000]; ingestion mode of delivery [BCIO:011035]; public transportation [BCIO:026042]; path or pavement [BCIO:026048]; water [BCIO:026047]; BCI schedule of delivery [BCIO:008500]; dentist facility [BCIO:026021]; intervention setting [BCIO:014000]; criminal justice facility [BCIO:026038]; retail facility [BCIO:026036]; mean human age [BCIO:015177]; buccal mode of delivery [BCIO:011040]; human age [BCIO:015015]; doctor-led primary care facility [BCIO:026016]; educational facility [BCIO:026022]; study recruitment setting [BCIO:014000]; country of intervention [BCIO:026001]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>mean calculation [OBI:0200079]; inclusion criterion [OBI:0500027]; exclusion criterion [OBI:0500028]</t>
+          <t>inclusion criterion [OBI:0500027]; quantitative confidence value [OBI:0000071]; exclusion criterion [OBI:0500028]; mean calculation [OBI:0200079]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -552,7 +552,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>QTC interval [CMO:0000269]</t>
+          <t>heart electrical conduction measurement [CMO:0000230]; QTC interval [CMO:0000269]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>measurement data item [IAO:0000109]; measurement datum [IAO:0000109]</t>
+          <t>measurement data item [IAO:0000109]; data item [IAO:0000027]; measurement datum [IAO:0000109]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>community healthcare facility [BCIO:026019]; psychiatric facility [BCIO:026051]; community facility [BCIO:026029]; mobile intervention venue [BCIO:026044]; intervention effect estimate [BCIO:017000]; care home facility [BCIO:026017]; transportation [BCIO:026041]; regular intervention schedule [BCIO:008535]; somatic mode of delivery [BCIO:011034]; intervention evaluation finding [BCIO:023000]; behaviour change intervention mode of delivery [BCIO:011000]; biological sex [BCIO:015105]; inhalation mode of delivery [BCIO:011041]; transdermal mode of delivery [BCIO:011036]; wearable ingestion mode of delivery [BCIO:011046]; office facility [BCIO:026037]; outdoor environment [BCIO:026046]; injection mode of delivery [BCIO:011042]; irregular intervention schedule [BCIO:008540]; belief about quality of life [BCIO:050324]; military facility [BCIO:026040]; male biological sex [BCIO:015107]; community outpatient clinic facility [BCIO:026020]; alimentary mode of delivery [BCIO:011037]; ambulance [BCIO:026045]; medication use status [BCIO:015490]; factory facility [BCIO:026039]; private transportation [BCIO:026043]; female biological sex [BCIO:015106]; behaviour change intervention source [BCIO:010000]; ingestion mode of delivery [BCIO:011035]; public transportation [BCIO:026042]; path or pavement [BCIO:026048]; water [BCIO:026047]; BCI schedule of delivery [BCIO:008500]; dentist facility [BCIO:026021]; intervention setting [BCIO:014000]; criminal justice facility [BCIO:026038]; retail facility [BCIO:026036]; mean human age [BCIO:015177]; buccal mode of delivery [BCIO:011040]; human age [BCIO:015015]; doctor-led primary care facility [BCIO:026016]; educational facility [BCIO:026022]; study recruitment setting [BCIO:014000]; country of intervention [BCIO:026001]</t>
+          <t>community healthcare facility [BCIO:026019]; psychiatric facility [BCIO:026051]; community facility [BCIO:026029]; mobile intervention venue [BCIO:026044]; intervention effect estimate [BCIO:017000]; care home facility [BCIO:026017]; transportation [BCIO:026041]; regular intervention schedule [BCIO:008535]; experience-related behaviour [BCIO:050443]; somatic mode of delivery [BCIO:011034]; intervention evaluation finding [BCIO:023000]; behaviour change intervention mode of delivery [BCIO:011000]; biological sex [BCIO:015105]; inhalation mode of delivery [BCIO:011041]; transdermal mode of delivery [BCIO:011036]; wearable ingestion mode of delivery [BCIO:011046]; office facility [BCIO:026037]; outdoor environment [BCIO:026046]; injection mode of delivery [BCIO:011042]; irregular intervention schedule [BCIO:008540]; belief about quality of life [BCIO:050324]; military facility [BCIO:026040]; male biological sex [BCIO:015107]; community outpatient clinic facility [BCIO:026020]; alimentary mode of delivery [BCIO:011037]; ambulance [BCIO:026045]; medication use status [BCIO:015490]; factory facility [BCIO:026039]; private transportation [BCIO:026043]; female biological sex [BCIO:015106]; behaviour change intervention source [BCIO:010000]; ingestion mode of delivery [BCIO:011035]; public transportation [BCIO:026042]; path or pavement [BCIO:026048]; water [BCIO:026047]; BCI schedule of delivery [BCIO:008500]; dentist facility [BCIO:026021]; intervention setting [BCIO:014000]; criminal justice facility [BCIO:026038]; retail facility [BCIO:026036]; mean human age [BCIO:015177]; buccal mode of delivery [BCIO:011040]; human age [BCIO:015015]; doctor-led primary care facility [BCIO:026016]; educational facility [BCIO:026022]; study recruitment setting [BCIO:014000]; country of intervention [BCIO:026001]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>high density lipoprotein cholesterol measurement [EFO:0004612]; low density lipoprotein cholesterol measurement [EFO:0004611]; total cholesterol measurement [EFO:0004574]; triglyceride measurement [EFO:0004530]; glucose measurement [EFO:0004468]; HbA1c measurement [EFO:0004541]; prolactin measurement [EFO:0007003]</t>
+          <t>high density lipoprotein cholesterol measurement [EFO:0004612]; total cholesterol measurement [EFO:0004574]; diabetes mellitus biomarker [EFO:0006842]; low density lipoprotein cholesterol measurement [EFO:0004611]; HbA1c measurement [EFO:0004541]; triglyceride measurement [EFO:0004530]; prolactin measurement [EFO:0007003]; glucose measurement [EFO:0004468]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -525,7 +525,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ulotaront [CHEBI:228346]; ractopamine [CHEBI:82644]; high-density lipoprotein cholesterol [CHEBI:47775]; tranquilizing drug [CHEBI:35473]; psychotropic drug [CHEBI:35471]; low-density lipoprotein cholesterol [CHEBI:47774]; very-low-density lipoprotein cholesterol [CHEBI:47773]</t>
+          <t>ulotaront [CHEBI:228346]; ractopamine [CHEBI:82644]; high-density lipoprotein cholesterol [CHEBI:47775]; tranquilizing drug [CHEBI:35473]; psychotropic drug [CHEBI:35471]; low-density lipoprotein cholesterol [CHEBI:47774]; very-low-density lipoprotein cholesterol [CHEBI:47773]; lipoprotein cholesterol [CHEBI:50404]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>community healthcare facility [BCIO:026019]; psychiatric facility [BCIO:026051]; community facility [BCIO:026029]; mobile intervention venue [BCIO:026044]; intervention effect estimate [BCIO:017000]; care home facility [BCIO:026017]; transportation [BCIO:026041]; regular intervention schedule [BCIO:008535]; experience-related behaviour [BCIO:050443]; somatic mode of delivery [BCIO:011034]; intervention evaluation finding [BCIO:023000]; behaviour change intervention mode of delivery [BCIO:011000]; biological sex [BCIO:015105]; inhalation mode of delivery [BCIO:011041]; transdermal mode of delivery [BCIO:011036]; wearable ingestion mode of delivery [BCIO:011046]; office facility [BCIO:026037]; outdoor environment [BCIO:026046]; injection mode of delivery [BCIO:011042]; irregular intervention schedule [BCIO:008540]; belief about quality of life [BCIO:050324]; military facility [BCIO:026040]; male biological sex [BCIO:015107]; community outpatient clinic facility [BCIO:026020]; alimentary mode of delivery [BCIO:011037]; ambulance [BCIO:026045]; medication use status [BCIO:015490]; factory facility [BCIO:026039]; private transportation [BCIO:026043]; female biological sex [BCIO:015106]; behaviour change intervention source [BCIO:010000]; ingestion mode of delivery [BCIO:011035]; public transportation [BCIO:026042]; path or pavement [BCIO:026048]; water [BCIO:026047]; BCI schedule of delivery [BCIO:008500]; dentist facility [BCIO:026021]; intervention setting [BCIO:014000]; criminal justice facility [BCIO:026038]; retail facility [BCIO:026036]; mean human age [BCIO:015177]; buccal mode of delivery [BCIO:011040]; human age [BCIO:015015]; doctor-led primary care facility [BCIO:026016]; educational facility [BCIO:026022]; study recruitment setting [BCIO:014000]; country of intervention [BCIO:026001]</t>
+          <t>community healthcare facility [BCIO:026019]; psychiatric facility [BCIO:026051]; community facility [BCIO:026029]; mobile intervention venue [BCIO:026044]; intervention effect estimate [BCIO:017000]; care home facility [BCIO:026017]; transportation [BCIO:026041]; regular intervention schedule [BCIO:008535]; experience-related behaviour [BCIO:050443]; somatic mode of delivery [BCIO:011034]; intervention evaluation finding [BCIO:023000]; behaviour change intervention mode of delivery [BCIO:011000]; biological sex [BCIO:015105]; inhalation mode of delivery [BCIO:011041]; transdermal mode of delivery [BCIO:011036]; wearable ingestion mode of delivery [BCIO:011046]; office facility [BCIO:026037]; outdoor environment [BCIO:026046]; injection mode of delivery [BCIO:011042]; irregular intervention schedule [BCIO:008540]; belief about quality of life [BCIO:050324]; military facility [BCIO:026040]; male biological sex [BCIO:015107]; community outpatient clinic facility [BCIO:026020]; alimentary mode of delivery [BCIO:011037]; ambulance [BCIO:026045]; evaluation finding [BCIO:035000]; medication use status [BCIO:015490]; factory facility [BCIO:026039]; private transportation [BCIO:026043]; female biological sex [BCIO:015106]; behaviour change intervention source [BCIO:010000]; ingestion mode of delivery [BCIO:011035]; public transportation [BCIO:026042]; path or pavement [BCIO:026048]; water [BCIO:026047]; BCI schedule of delivery [BCIO:008500]; dentist facility [BCIO:026021]; intervention setting [BCIO:014000]; criminal justice facility [BCIO:026038]; retail facility [BCIO:026036]; mean human age [BCIO:015177]; buccal mode of delivery [BCIO:011040]; human age [BCIO:015015]; doctor-led primary care facility [BCIO:026016]; educational facility [BCIO:026022]; study recruitment setting [BCIO:014000]; country of intervention [BCIO:026001]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -947,7 +947,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>material entity [BFO:0000040]; site [BFO:0000029]</t>
+          <t>material entity [BFO:0000040]; site [BFO:0000029]; process [BFO:0000015]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>measurement data item [IAO:0000109]; data item [IAO:0000027]; measurement datum [IAO:0000109]</t>
+          <t>measurement data item [IAO:0000109]; information content entity [IAO:0000030]; data item [IAO:0000027]; measurement datum [IAO:0000109]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -660,7 +660,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>belief [MF:0000041]; mental functioning related anatomical structure [MF:0000000]</t>
+          <t>mental functioning related anatomical structure [MF:0000000]; belief [MF:0000041]; bodily disposition [MF:0000032]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -947,7 +947,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>material entity [BFO:0000040]; site [BFO:0000029]; process [BFO:0000015]</t>
+          <t>fiat object part [BFO:0000024]; material entity [BFO:0000040]; site [BFO:0000029]; process [BFO:0000015]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -947,7 +947,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>fiat object part [BFO:0000024]; material entity [BFO:0000040]; site [BFO:0000029]; process [BFO:0000015]</t>
+          <t>fiat object part [BFO:0000024]; material entity [BFO:0000040]; temporal region [BFO:0000008]; site [BFO:0000029]; process [BFO:0000015]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>high density lipoprotein cholesterol measurement [EFO:0004612]; total cholesterol measurement [EFO:0004574]; diabetes mellitus biomarker [EFO:0006842]; low density lipoprotein cholesterol measurement [EFO:0004611]; HbA1c measurement [EFO:0004541]; triglyceride measurement [EFO:0004530]; prolactin measurement [EFO:0007003]; glucose measurement [EFO:0004468]</t>
+          <t>total cholesterol measurement [EFO:0004574]; low density lipoprotein cholesterol measurement [EFO:0004611]; glucose measurement [EFO:0004468]; high density lipoprotein cholesterol measurement [EFO:0004612]; diabetes mellitus biomarker [EFO:0006842]; hormone measurement [EFO:0004730]; HbA1c measurement [EFO:0004541]; triglyceride measurement [EFO:0004530]; prolactin measurement [EFO:0007003]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>total cholesterol measurement [EFO:0004574]; low density lipoprotein cholesterol measurement [EFO:0004611]; glucose measurement [EFO:0004468]; high density lipoprotein cholesterol measurement [EFO:0004612]; diabetes mellitus biomarker [EFO:0006842]; hormone measurement [EFO:0004730]; HbA1c measurement [EFO:0004541]; triglyceride measurement [EFO:0004530]; prolactin measurement [EFO:0007003]</t>
+          <t>total cholesterol measurement [EFO:0004574]; lipid measurement [EFO:0004529]; glucose measurement [EFO:0004468]; low density lipoprotein cholesterol measurement [EFO:0004611]; high density lipoprotein cholesterol measurement [EFO:0004612]; diabetes mellitus biomarker [EFO:0006842]; hormone measurement [EFO:0004730]; HbA1c measurement [EFO:0004541]; triglyceride measurement [EFO:0004530]; prolactin measurement [EFO:0007003]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -978,6 +978,28 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>SEPIO</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>research study [SEPIO:0000125]</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>inclusion criterion [OBI:0500027]; quantitative confidence value [OBI:0000071]; exclusion criterion [OBI:0500028]; mean calculation [OBI:0200079]</t>
+          <t>inclusion criterion [OBI:0500027]; quantitative confidence value [OBI:0000071]; mean calculation [OBI:0200079]; data transformation [OBI:0200000]; exclusion criterion [OBI:0500028]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>measurement data item [IAO:0000109]; information content entity [IAO:0000030]; data item [IAO:0000027]; measurement datum [IAO:0000109]</t>
+          <t>information content entity [IAO:0000030]; plan specification [IAO:0000104]; measurement datum [IAO:0000109]; measurement data item [IAO:0000109]; data item [IAO:0000027]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -822,7 +822,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>study status [OPMI:0000327]</t>
+          <t>status [OPMI:0000326]; study status [OPMI:0000327]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -947,7 +947,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>fiat object part [BFO:0000024]; material entity [BFO:0000040]; temporal region [BFO:0000008]; site [BFO:0000029]; process [BFO:0000015]</t>
+          <t>material entity [BFO:0000040]; temporal region [BFO:0000008]; site [BFO:0000029]; generically dependent continuant [BFO:0000031]; process [BFO:0000015]; fiat object part [BFO:0000024]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>inclusion criterion [OBI:0500027]; quantitative confidence value [OBI:0000071]; mean calculation [OBI:0200079]; data transformation [OBI:0200000]; exclusion criterion [OBI:0500028]</t>
+          <t>inclusion criterion [OBI:0500027]; eligibility criterion [OBI:0500026]; quantitative confidence value [OBI:0000071]; mean calculation [OBI:0200079]; data transformation [OBI:0200000]; exclusion criterion [OBI:0500028]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>community healthcare facility [BCIO:026019]; psychiatric facility [BCIO:026051]; community facility [BCIO:026029]; mobile intervention venue [BCIO:026044]; intervention effect estimate [BCIO:017000]; care home facility [BCIO:026017]; transportation [BCIO:026041]; regular intervention schedule [BCIO:008535]; experience-related behaviour [BCIO:050443]; somatic mode of delivery [BCIO:011034]; intervention evaluation finding [BCIO:023000]; behaviour change intervention mode of delivery [BCIO:011000]; biological sex [BCIO:015105]; inhalation mode of delivery [BCIO:011041]; transdermal mode of delivery [BCIO:011036]; wearable ingestion mode of delivery [BCIO:011046]; office facility [BCIO:026037]; outdoor environment [BCIO:026046]; injection mode of delivery [BCIO:011042]; irregular intervention schedule [BCIO:008540]; belief about quality of life [BCIO:050324]; military facility [BCIO:026040]; male biological sex [BCIO:015107]; community outpatient clinic facility [BCIO:026020]; alimentary mode of delivery [BCIO:011037]; ambulance [BCIO:026045]; evaluation finding [BCIO:035000]; medication use status [BCIO:015490]; factory facility [BCIO:026039]; private transportation [BCIO:026043]; female biological sex [BCIO:015106]; behaviour change intervention source [BCIO:010000]; ingestion mode of delivery [BCIO:011035]; public transportation [BCIO:026042]; path or pavement [BCIO:026048]; water [BCIO:026047]; BCI schedule of delivery [BCIO:008500]; dentist facility [BCIO:026021]; intervention setting [BCIO:014000]; criminal justice facility [BCIO:026038]; retail facility [BCIO:026036]; mean human age [BCIO:015177]; buccal mode of delivery [BCIO:011040]; human age [BCIO:015015]; doctor-led primary care facility [BCIO:026016]; educational facility [BCIO:026022]; study recruitment setting [BCIO:014000]; country of intervention [BCIO:026001]</t>
+          <t>injection mode of delivery [BCIO:011042]; military facility [BCIO:026040]; BCI attribute [BCIO:050315]; country of intervention [BCIO:026001]; office facility [BCIO:026037]; study recruitment setting [BCIO:014000]; intervention effect estimate [BCIO:017000]; belief about quality of life [BCIO:050324]; ambulance [BCIO:026045]; community facility [BCIO:026029]; community healthcare facility [BCIO:026019]; evaluation finding [BCIO:035000]; outdoor environment [BCIO:026046]; care home facility [BCIO:026017]; psychiatric facility [BCIO:026051]; ingestion mode of delivery [BCIO:011035]; somatic mode of delivery [BCIO:011034]; transdermal mode of delivery [BCIO:011036]; regular intervention schedule [BCIO:008535]; public transportation [BCIO:026042]; behaviour change intervention source [BCIO:010000]; BCI schedule of delivery [BCIO:008500]; intervention setting [BCIO:014000]; transportation [BCIO:026041]; inhalation mode of delivery [BCIO:011041]; biological sex [BCIO:015105]; buccal mode of delivery [BCIO:011040]; path or pavement [BCIO:026048]; human age [BCIO:015015]; educational facility [BCIO:026022]; wearable ingestion mode of delivery [BCIO:011046]; factory facility [BCIO:026039]; irregular intervention schedule [BCIO:008540]; intervention evaluation finding [BCIO:023000]; medication use status [BCIO:015490]; water [BCIO:026047]; mobile intervention venue [BCIO:026044]; community outpatient clinic facility [BCIO:026020]; behaviour change intervention mode of delivery [BCIO:011000]; alimentary mode of delivery [BCIO:011037]; experience-related behaviour [BCIO:050443]; private transportation [BCIO:026043]; female biological sex [BCIO:015106]; dentist facility [BCIO:026021]; mean human age [BCIO:015177]; criminal justice facility [BCIO:026038]; male biological sex [BCIO:015107]; doctor-led primary care facility [BCIO:026016]; retail facility [BCIO:026036]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -17,13 +17,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,8 +50,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -422,32 +427,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Ontology ID</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>PURL</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>ROOT_ID</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>IDs</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Intermediates</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Prefix</t>
         </is>
@@ -479,6 +484,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -506,6 +512,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -533,6 +540,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -560,6 +568,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -587,6 +596,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -614,6 +624,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -641,6 +652,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -668,6 +680,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -695,6 +708,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -722,6 +736,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -749,6 +764,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -776,6 +792,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -803,6 +820,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -830,6 +848,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -857,6 +876,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -884,6 +904,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -911,6 +932,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -918,6 +940,11 @@
           <t>GAZ</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/gaz.owl</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
           <t>entity [BFO:0000001]</t>
@@ -933,6 +960,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -940,6 +968,11 @@
           <t>BFO</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/BFO-ontology/BFO/releases/2014-05-03/owl-group/bfo.owl</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr">
         <is>
           <t>entity [BFO:0000001]</t>
@@ -955,6 +988,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -962,6 +996,7 @@
           <t>COB</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>entity [BFO:0000001]</t>
@@ -977,6 +1012,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -984,6 +1020,7 @@
           <t>SEPIO</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>entity [BFO:0000001]</t>
@@ -999,6 +1036,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -996,7 +996,11 @@
           <t>COB</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/cob.owl</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr">
         <is>
           <t>entity [BFO:0000001]</t>
@@ -1020,7 +1024,11 @@
           <t>SEPIO</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/sepio.owl</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr">
         <is>
           <t>entity [BFO:0000001]</t>

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -914,7 +914,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/STATO</t>
+          <t>http://purl.obolibrary.org/obo/STATO.owl</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -996,11 +996,7 @@
           <t>COB</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/cob.owl</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>entity [BFO:0000001]</t>
@@ -1024,11 +1020,7 @@
           <t>SEPIO</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/sepio.owl</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>entity [BFO:0000001]</t>

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -484,7 +484,11 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>"ADDICTO: http://addictovocab.org/ADDICTO_"</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO</t>
+          <t>https://www.humanbehaviourchange.org/ontology/bcio.owl</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -610,7 +610,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/ENVO</t>
+          <t>http://purl.obolibrary.org/obo/envo.owl</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,7 +638,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/IAO</t>
+          <t>http://purl.obolibrary.org/obo/iao.owl</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/MF</t>
+          <t>http://purl.obolibrary.org/obo/mf.owl</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -694,7 +694,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/OBCS</t>
+          <t>http://purl.obolibrary.org/obo/obcs.owl</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/OBI</t>
+          <t>http://purl.obolibrary.org/obo/obi.owl</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/OGMS</t>
+          <t>http://purl.obolibrary.org/obo/ogms.owl</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/OMRSE</t>
+          <t>http://purl.obolibrary.org/obo/omrse.owl</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.humanbehaviourchange.org/ontology/bcio.owl</t>
+          <t>https://www.humanbehaviourchange.org/ontologies/bcio.owl</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.humanbehaviourchange.org/ontologies/bcio.owl</t>
+          <t>http://humanbehaviourchange.org/ontology/bcio.owl</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -516,7 +516,11 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>"BCIO: http://humanbehaviourchange.org/ontology/BCIO_"</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -600,7 +604,11 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>"EFO: http://www.ebi.ac.uk/efo/EFO_"</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -992,7 +992,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>generically dependent continuant [BFO:0000031]; temporal region [BFO:0000008]; process [BFO:0000015]; material entity [BFO:0000040]; immaterial entity [BFO:0000141]; site [BFO:0000029]; fiat object part [BFO:0000024]; specifically dependent continuant [BFO:0000020]</t>
+          <t>generically dependent continuant [BFO:0000031]; temporal region [BFO:0000008]; process [BFO:0000015]; material entity [BFO:0000040]; immaterial entity [BFO:0000141]; site [BFO:0000029]; fiat object part [BFO:0000024]; specifically dependent continuant [BFO:0000020]; function [BFO:0000034]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>measurement datum [IAO:0000109]; measurement data item [IAO:0000109]; plan specification [IAO:0000104]; citation [IAO:0000301]; information content entity [IAO:0000030]; data item [IAO:0000027]</t>
+          <t>measurement datum [IAO:0000109]; measurement data item [IAO:0000109]; plan specification [IAO:0000104]; citation [IAO:0000301]; information content entity [IAO:0000030]; data item [IAO:0000027]; is about [IAO:0000136]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>precedes [BFO:0000063]</t>
+          <t>precedes [BFO:0000063]; part of [BFO:0000050]; has part [BFO:0000051]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -1077,7 +1077,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>precedes [BFO:0000063]; part of [BFO:0000050]; has part [BFO:0000051]</t>
+          <t xml:space="preserve">precedes [BFO:0000063]; part of [BFO:0000050]; has part [BFO:0000051]; realizes [BFO:0000055]; </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -1077,7 +1077,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">precedes [BFO:0000063]; part of [BFO:0000050]; has part [BFO:0000051]; realizes [BFO:0000055]; </t>
+          <t>precedes [BFO:0000063]; part of [BFO:0000050]; has part [BFO:0000051]; realizes [BFO:0000055]; has occurrent part [BFO:0000117]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
